--- a/bh3/558396841419784202_2021-08-13_18-24-56.xlsx
+++ b/bh3/558396841419784202_2021-08-13_18-24-56.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5189214678</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:06:43</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44426.42133101852</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>5155369084</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:31:09</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44422.56329861111</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -689,10 +701,8 @@
           <t>5155205799</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:11:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44422.54935185185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-14 07:21:46</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44422.30678240741</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -827,10 +835,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-14 02:06:36</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44422.08791666666</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -898,10 +904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:24:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44422.05868055556</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -977,10 +981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:52:34</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44421.99483796296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1048,10 +1050,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:43:13</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44421.94667824074</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1127,10 +1127,8 @@
           <t>5148562608</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:31:39</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44421.93864583333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>5148457413</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:02:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44421.87643518519</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1273,10 +1269,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:19:34</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44421.8469212963</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1348,10 +1342,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:14:34</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44421.84344907408</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -1419,10 +1411,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:14:02</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44421.84307870371</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1490,10 +1480,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:41:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44421.82077546296</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -1561,10 +1549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:41:46</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44421.82067129629</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1631,10 +1617,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:03</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44421.81809027777</v>
       </c>
       <c r="I17" t="n">
         <v>41</v>
@@ -1702,10 +1686,8 @@
           <t>5148457413</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:48</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44421.81791666667</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1777,10 +1759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:12</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44421.81472222223</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1852,10 +1832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:07</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44421.8028587963</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1923,10 +1901,8 @@
           <t>5148772942</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:14:52</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44421.80199074074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1994,10 +1970,8 @@
           <t>5148314928</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:42</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44421.79979166666</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2073,10 +2047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:28</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44421.79754629629</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2152,10 +2124,8 @@
           <t>5148457413</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:00:28</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44421.79199074074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2219,10 +2189,8 @@
           <t>5148545398</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:59:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44421.79148148148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2290,10 +2258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:57:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44421.79011574074</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2369,10 +2335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:57:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44421.78980324074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2436,10 +2400,8 @@
           <t>5148562608</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:56:30</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44421.78923611111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2515,10 +2477,8 @@
           <t>5148562608</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:53:56</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44421.78745370371</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2594,10 +2554,8 @@
           <t>5148545398</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:47</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44421.78596064815</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2657,10 +2615,8 @@
           <t>5148529376</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44421.78556712963</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2729,10 +2685,8 @@
           <t>5148457413</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:49:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44421.78469907407</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2796,10 +2750,8 @@
           <t>5148510759</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:48:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44421.78390046296</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2872,10 +2824,8 @@
           <t>5148496482</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:47:23</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44421.78290509259</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2939,10 +2889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:46:43</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44421.78244212963</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3018,10 +2966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:46:41</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44421.78241898148</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3093,10 +3039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:46:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44421.78210648148</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3172,10 +3116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:45:43</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44421.78174768519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3239,10 +3181,8 @@
           <t>5148471332</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:44:34</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44421.78094907408</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3306,10 +3246,8 @@
           <t>5148457413</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:43:24</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44421.78013888889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3373,10 +3311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:43:06</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44421.77993055555</v>
       </c>
       <c r="I41" t="n">
         <v>89</v>
@@ -3452,10 +3388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44421.77877314815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3532,10 +3466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44421.77811342593</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3613,10 +3545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:28</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44421.77810185185</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
@@ -3688,10 +3618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44421.77810185185</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3751,10 +3679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:39:01</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44421.7770949074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3830,10 +3756,8 @@
           <t>5148402955</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:38:02</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44421.77641203703</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3901,10 +3825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:36:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44421.77532407407</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3968,10 +3890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:35:20</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44421.77453703704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4044,10 +3964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:34:43</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44421.77410879629</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4123,10 +4041,8 @@
           <t>5148334325</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:34:41</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44421.77408564815</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4194,10 +4110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:34:17</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44421.77380787037</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4274,10 +4188,8 @@
           <t>5148349808</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:33:30</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44421.77326388889</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4345,10 +4257,8 @@
           <t>5148334325</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:31:48</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44421.77208333334</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
@@ -4424,10 +4334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:57</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44421.77149305555</v>
       </c>
       <c r="I55" t="n">
         <v>23</v>
@@ -4503,10 +4411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:52</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44421.77143518518</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4578,10 +4484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:51</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44421.77142361111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4657,10 +4561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:26</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44421.77113425926</v>
       </c>
       <c r="I58" t="n">
         <v>33</v>
@@ -4728,10 +4630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:23</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44421.77109953704</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4795,10 +4695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:08</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44421.77092592593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4874,10 +4772,8 @@
           <t>5148314928</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:42</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44421.770625</v>
       </c>
       <c r="I61" t="n">
         <v>12</v>
@@ -4953,10 +4849,8 @@
           <t>5148314672</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:38</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44421.7705787037</v>
       </c>
       <c r="I62" t="n">
         <v>18</v>
@@ -5032,10 +4926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:19</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44421.7703587963</v>
       </c>
       <c r="I63" t="n">
         <v>9</v>
@@ -5099,10 +4991,8 @@
           <t>5148313518</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44421.7703587963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5166,10 +5056,8 @@
           <t>5148313474</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:18</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44421.77034722222</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5241,10 +5129,8 @@
           <t>5148320505</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:06</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44421.77020833334</v>
       </c>
       <c r="I66" t="n">
         <v>9</v>
@@ -5320,10 +5206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:28:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44421.77008101852</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5399,10 +5283,8 @@
           <t>5148310201</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:28:23</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44421.76971064815</v>
       </c>
       <c r="I68" t="n">
         <v>27</v>
@@ -5478,10 +5360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:28:22</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44421.76969907407</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5545,10 +5425,8 @@
           <t>5148298448</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:27:53</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44421.76936342593</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5624,10 +5502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:27:21</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44421.76899305556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5691,10 +5567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:27:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44421.76875</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5770,10 +5644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:30</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44421.76840277778</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5849,10 +5721,8 @@
           <t>5148286176</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:22</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44421.76831018519</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5928,10 +5798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:16</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44421.76824074074</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5995,10 +5863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:15</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44421.76822916666</v>
       </c>
       <c r="I76" t="n">
         <v>10</v>
@@ -6070,10 +5936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:15</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44421.76822916666</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6149,10 +6013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:07</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44421.76813657407</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6228,10 +6090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:59</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44421.76804398148</v>
       </c>
       <c r="I79" t="n">
         <v>673</v>
@@ -6299,10 +6159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:59</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44421.76804398148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6378,10 +6236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:58</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44421.76803240741</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6449,10 +6305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:54</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44421.76798611111</v>
       </c>
       <c r="I82" t="n">
         <v>298</v>
@@ -6520,10 +6374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44421.76798611111</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6591,10 +6443,8 @@
           <t>5148286176</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:53</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44421.76797453704</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6670,10 +6520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:49</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44421.76792824074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6741,10 +6589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:37</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44421.76778935185</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6820,10 +6666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:35</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44421.7677662037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6899,10 +6743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:33</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44421.76774305556</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6974,10 +6816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:31</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44421.76771990741</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7041,10 +6881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44421.76767361111</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7116,10 +6954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:24</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44421.76763888889</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7191,10 +7027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:24</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44421.76763888889</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7258,10 +7092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:20</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44421.76759259259</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7334,10 +7166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:19</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44421.76758101852</v>
       </c>
       <c r="I94" t="n">
         <v>70</v>
